--- a/mysql_database_sample.xlsx
+++ b/mysql_database_sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\Documents\GitHub\4353assignment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530A1574-CCE0-448C-B1AC-4236DCEAA3B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E3FE72-ED30-4D74-A382-2CA85FC0D59B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12675" yWindow="2475" windowWidth="21600" windowHeight="11385" xr2:uid="{98BB827D-2187-4631-8EB5-B0945FFF41D1}"/>
+    <workbookView xWindow="4845" yWindow="2625" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{98BB827D-2187-4631-8EB5-B0945FFF41D1}"/>
   </bookViews>
   <sheets>
     <sheet name="userCredentials" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>Password</t>
   </si>
@@ -91,9 +91,6 @@
     <t>4Q_W&gt;epx:</t>
   </si>
   <si>
-    <t>Client_ID</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
@@ -137,6 +134,27 @@
   </si>
   <si>
     <t>Total Amount Due</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>NJ</t>
   </si>
 </sst>
 </file>
@@ -491,7 +509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC6EF30-2E9E-4D3F-94B1-ECE97314AC87}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -581,142 +599,115 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5DF51B7-5033-4499-B179-A23BD1A39F2C}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
       <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="D2">
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
       <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -743,19 +734,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>32</v>
-      </c>
-      <c r="E1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -763,7 +754,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
         <v>43927</v>
@@ -781,7 +772,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1">
         <v>43689</v>
@@ -799,7 +790,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1">
         <v>43384</v>
@@ -817,7 +808,7 @@
         <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1">
         <v>44251</v>
@@ -835,7 +826,7 @@
         <v>110</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1">
         <v>42189</v>
